--- a/APM files/134802983/Import Results/134802983 IMPORT 1 EID creation_result.xlsx
+++ b/APM files/134802983/Import Results/134802983 IMPORT 1 EID creation_result.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/134802983/Import Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1709CE6F-8B7F-2F4C-88F1-EDA75A166F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2769F72-A18A-D747-AF41-584BCFFB136D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="500" windowWidth="25600" windowHeight="27060" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3880" yWindow="1480" windowWidth="25600" windowHeight="27060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Success" sheetId="1" r:id="rId1"/>
     <sheet name="Fail - create shell in LCM" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -894,9 +907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB32"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3594,7 +3607,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
